--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I397"/>
+  <dimension ref="A1:G402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>85VBFQZC9TZkfaptBWjvUw7YbZjy52A6mjtPGjstQAmQ</t>
+          <t>EPjFWdd5AufqSSqeM2qN1xzybapC8G4wEGGkZwyTDt1v</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>EchesyfXePKdLtoiZSL8pBe8Myagyy8ZRqsACNCFGnvp</t>
+          <t>DezXAZ8z7PnrnRJjz3wXBoRgixCa6xjnB7YaB1pPB263</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -456,22 +456,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ukHH6c7mMyiWCf1b9pnWe25TSpkDDt3H5pQZgZ74J82</t>
+          <t>7i5KKsX2weiTkry7jA4ZwSuXGhs5eJBEjY8vVxR4pfRx</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>DezXAZ8z7PnrnRJjz3wXBoRgixCa6xjnB7YaB1pPB263</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>EPjFWdd5AufqSSqeM2qN1xzybapC8G4wEGGkZwyTDt1v</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>JUPyiwrYJFskUPiHa7hkeR8VUtAeFoSYbKedZNsDvCN</t>
+          <t>EKpQGSJtjMFqKZ9KQanSqYXRcF8fBopzLHYxdM65zcjm</t>
         </is>
       </c>
     </row>
@@ -481,42 +471,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>SOLANA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>USDC</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Bonk</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>USDT</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Error</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>$WIF</t>
         </is>
       </c>
     </row>
@@ -526,42 +506,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-392005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-29.13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-1306.16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-13598.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-4640.09</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-599994792.0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>-63.0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>-14998.31</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -571,42 +541,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-4005000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-303.791489</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-9534792.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-15847.144658</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-15973.16</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>TRANSFER_OUT</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>TRANSFER_OUT</t>
+          <t>-248.406054</t>
         </is>
       </c>
     </row>
@@ -616,42 +576,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1714211571</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1714211570</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1714211529</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1714211528</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1714211508</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1714211488</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>1714211454</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1714211433</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
     </row>
@@ -661,36 +611,34 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218910</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>1714218910</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1714218909</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218880</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218767</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>1714218730</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -698,36 +646,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-2751048310</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-147.13</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-15.699217</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-369837.63</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>-1100582.68992</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>-2998.0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -735,36 +673,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-15630860160</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>-239998.0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-199934792.0</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>TRANSFER_OUT</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>TRANSFER_OUT</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>TRANSFER_OUT</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>-200.0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -772,36 +700,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1714211570</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1714211369</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>TRANSFER_OUT</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>TRANSFER_OUT</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1714211353</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1714211309</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1714211269</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>1714211433</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>TRANSFER_OUT</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -809,24 +727,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+          <t>1714218910</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1714218872</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1714218872</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218689</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -834,24 +754,26 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-342661820</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-6998.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>-2000.0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -859,24 +781,26 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+          <t>-4005000</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-498.0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-470729.00992</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-57.240972</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>TRANSFER_OUT</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -884,24 +808,26 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1714211570</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+          <t>TRANSFER_OUT</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>TRANSFER_OUT</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>TRANSFER_OUT</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1714211353</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>1714211288</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -909,24 +835,26 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+          <t>1714218909</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1714218812</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1714218849</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218688</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -934,24 +862,26 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-4005000</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-301.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>-978.0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -959,24 +889,26 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+          <t>-403694540</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>-99.182445</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-10000000.0</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-321.1008</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>TRANSFER_OUT</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -984,24 +916,26 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1714211570</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+          <t>TRANSFER_OUT</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>TRANSFER_OUT</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TRANSFER_OUT</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1714211250</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>1714211254</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1009,16 +943,26 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+          <t>1714218898</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1714218812</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1714218628</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1714218629</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1026,16 +970,18 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-369853110</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1043,16 +989,18 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-1821801820</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>-803000000.0</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1060,16 +1008,18 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1714211556</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>TRANSFER_OUT</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1077,16 +1027,18 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218898</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1714218596</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1094,7 +1046,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>-5926406980</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1102,8 +1054,6 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1111,7 +1061,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-6304585000</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1119,8 +1069,6 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1128,7 +1076,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1714211556</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1136,8 +1084,6 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1145,7 +1091,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218896</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1153,8 +1099,6 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1162,7 +1106,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-992005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1170,8 +1114,6 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1179,7 +1121,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-4005000</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1187,8 +1129,6 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1196,7 +1136,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1714211555</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1204,8 +1144,6 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1213,7 +1151,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218880</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1221,8 +1159,6 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1230,7 +1166,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-1125584520</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1238,8 +1174,6 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1247,7 +1181,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-659574560</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1255,8 +1189,6 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1264,7 +1196,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1714211555</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1272,8 +1204,6 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1281,7 +1211,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218878</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1289,8 +1219,6 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1298,7 +1226,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-1670545000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1306,8 +1234,6 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1315,7 +1241,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-4005000</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1323,8 +1249,6 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1332,7 +1256,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1714211555</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1340,8 +1264,6 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1349,7 +1271,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218872</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1357,8 +1279,6 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1366,7 +1286,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-390887470</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1374,8 +1294,6 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1383,7 +1301,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-621375000</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1391,8 +1309,6 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1400,7 +1316,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1714211555</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1408,8 +1324,6 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1417,7 +1331,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218872</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -1425,8 +1339,6 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1434,7 +1346,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-992005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -1442,8 +1354,6 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1451,7 +1361,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-620480470</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -1459,8 +1369,6 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1468,7 +1376,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1714211555</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -1476,8 +1384,6 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1485,7 +1391,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218872</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -1493,8 +1399,6 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1502,7 +1406,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-492005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1510,8 +1414,6 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1519,7 +1421,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-4005000</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -1527,8 +1429,6 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1536,7 +1436,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1714211541</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -1544,8 +1444,6 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1553,7 +1451,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218872</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -1561,8 +1459,6 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1570,7 +1466,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-10461525000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -1578,8 +1474,6 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1587,7 +1481,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-671325000</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -1595,8 +1489,6 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1604,7 +1496,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1714211533</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -1612,8 +1504,6 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1621,7 +1511,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218852</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -1629,8 +1519,6 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1638,7 +1526,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-992005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -1646,8 +1534,6 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1655,7 +1541,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-1600395000</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -1663,8 +1549,6 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1672,7 +1556,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1714211532</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -1680,8 +1564,6 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1689,7 +1571,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218851</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -1697,8 +1579,6 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1706,7 +1586,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-7834155000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -1714,8 +1594,6 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1723,7 +1601,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-4417575000</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -1731,8 +1609,6 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1740,7 +1616,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1714211529</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -1748,8 +1624,6 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1757,7 +1631,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218849</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -1765,8 +1639,6 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -1774,7 +1646,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-1492005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -1782,8 +1654,6 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -1791,7 +1661,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-6044280</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -1799,8 +1669,6 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -1808,7 +1676,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1714211529</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -1816,8 +1684,6 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -1825,7 +1691,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218849</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -1833,8 +1699,6 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -1842,7 +1706,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-6044280</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -1850,8 +1714,6 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -1859,7 +1721,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-570207000</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -1867,8 +1729,6 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -1876,7 +1736,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1714211529</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -1884,8 +1744,6 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -1893,7 +1751,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218849</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -1901,8 +1759,6 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -1910,7 +1766,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-4005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -1918,8 +1774,6 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -1927,7 +1781,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-1582005000</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -1935,8 +1789,6 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -1944,7 +1796,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1714211528</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -1952,8 +1804,6 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -1961,7 +1811,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218831</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -1969,8 +1819,6 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -1978,7 +1826,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>-4005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -1986,8 +1834,6 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -1995,7 +1841,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-4437555000</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -2003,8 +1849,6 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2012,7 +1856,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1714211508</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -2020,8 +1864,6 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2029,7 +1871,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218830</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -2037,8 +1879,6 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2046,7 +1886,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>-292005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -2054,8 +1894,6 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2063,7 +1901,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-5586405000</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -2071,8 +1909,6 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2080,7 +1916,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1714211508</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -2088,8 +1924,6 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2097,7 +1931,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218827</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -2105,8 +1939,6 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2114,7 +1946,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-992005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -2122,8 +1954,6 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2131,7 +1961,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-312005000</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -2139,8 +1969,6 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2148,7 +1976,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>1714211508</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -2156,8 +1984,6 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2165,7 +1991,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218827</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -2173,8 +1999,6 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2182,7 +2006,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-392005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -2190,8 +2014,6 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2199,7 +2021,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-1010985000</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -2207,8 +2029,6 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2216,7 +2036,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1714211494</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -2224,8 +2044,6 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2233,7 +2051,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218820</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -2241,8 +2059,6 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2250,7 +2066,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-392005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -2258,8 +2074,6 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2267,7 +2081,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-332005000</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -2275,8 +2089,6 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2284,7 +2096,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1714211492</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -2292,8 +2104,6 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2301,7 +2111,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218820</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -2309,8 +2119,6 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2318,7 +2126,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-946526260</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -2326,8 +2134,6 @@
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2335,7 +2141,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-6735255000</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -2343,8 +2149,6 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2352,7 +2156,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>1714211492</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -2360,8 +2164,6 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2369,7 +2171,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218815</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -2377,8 +2179,6 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2386,7 +2186,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>-2269725000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -2394,8 +2194,6 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2403,7 +2201,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-1492005000</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -2411,8 +2209,6 @@
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2420,7 +2216,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1714211492</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -2428,8 +2224,6 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2437,7 +2231,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218815</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -2445,8 +2239,6 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -2454,7 +2246,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>-4597005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -2462,8 +2254,6 @@
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -2471,7 +2261,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-4005000</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -2479,8 +2269,6 @@
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -2488,7 +2276,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>1714211492</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -2496,8 +2284,6 @@
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -2505,7 +2291,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218812</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -2513,8 +2299,6 @@
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -2522,7 +2306,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>-4005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -2530,8 +2314,6 @@
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -2539,7 +2321,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-4005000</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -2547,8 +2329,6 @@
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -2556,7 +2336,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>1714211488</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -2564,8 +2344,6 @@
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -2573,7 +2351,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218812</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -2581,8 +2359,6 @@
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -2590,7 +2366,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>-2679349960</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -2598,8 +2374,6 @@
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -2607,7 +2381,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-317027360</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -2615,8 +2389,6 @@
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -2624,7 +2396,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>1714211473</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -2632,8 +2404,6 @@
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -2641,7 +2411,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218812</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -2649,8 +2419,6 @@
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -2658,7 +2426,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-2109719110</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -2666,8 +2434,6 @@
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -2675,7 +2441,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-492005000</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -2683,8 +2449,6 @@
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -2692,7 +2456,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>1714211472</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -2700,8 +2464,6 @@
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -2709,7 +2471,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218809</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -2717,8 +2479,6 @@
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -2726,7 +2486,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-342005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -2734,8 +2494,6 @@
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -2743,7 +2501,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-898535000</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -2751,8 +2509,6 @@
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -2760,7 +2516,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>1714211472</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -2768,8 +2524,6 @@
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -2777,7 +2531,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218796</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -2785,8 +2539,6 @@
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -2794,7 +2546,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-3092005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -2802,8 +2554,6 @@
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr"/>
-      <c r="I123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -2811,7 +2561,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-899597820</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -2819,8 +2569,6 @@
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -2828,7 +2576,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1714211471</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -2836,8 +2584,6 @@
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -2845,7 +2591,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218795</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -2853,8 +2599,6 @@
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -2862,7 +2606,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>-341475000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -2870,8 +2614,6 @@
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -2879,7 +2621,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-311720000</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -2887,8 +2629,6 @@
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -2896,7 +2636,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>1714211470</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -2904,8 +2644,6 @@
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr"/>
-      <c r="I129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -2913,7 +2651,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218795</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -2921,8 +2659,6 @@
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -2930,7 +2666,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-1520693660</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -2938,8 +2674,6 @@
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr"/>
-      <c r="I131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -2947,7 +2681,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-762122710</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -2955,8 +2689,6 @@
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr"/>
-      <c r="I132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -2964,7 +2696,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>1714211470</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -2972,8 +2704,6 @@
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr"/>
-      <c r="I133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -2981,7 +2711,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218795</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -2989,8 +2719,6 @@
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr"/>
-      <c r="I134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -2998,7 +2726,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>-13738245000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -3006,8 +2734,6 @@
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr"/>
-      <c r="I135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3015,7 +2741,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-22067005000</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -3023,8 +2749,6 @@
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
-      <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3032,7 +2756,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>1714211469</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -3040,8 +2764,6 @@
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3049,7 +2771,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218793</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -3057,8 +2779,6 @@
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -3066,7 +2786,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>-80128437690</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -3074,8 +2794,6 @@
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -3083,7 +2801,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-12319945000</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -3091,8 +2809,6 @@
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -3100,7 +2816,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>1714211469</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -3108,8 +2824,6 @@
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -3117,7 +2831,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218793</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -3125,8 +2839,6 @@
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -3134,7 +2846,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-3448545000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -3142,8 +2854,6 @@
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -3151,7 +2861,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-442457060</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -3159,8 +2869,6 @@
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -3168,7 +2876,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>1714211469</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -3176,8 +2884,6 @@
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -3185,7 +2891,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218792</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -3193,8 +2899,6 @@
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -3202,7 +2906,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>-1333644610</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -3210,8 +2914,6 @@
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr"/>
-      <c r="I147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -3219,7 +2921,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-341658330</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -3227,8 +2929,6 @@
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
-      <c r="H148" t="inlineStr"/>
-      <c r="I148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -3236,7 +2936,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>1714211469</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -3244,8 +2944,6 @@
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
-      <c r="H149" t="inlineStr"/>
-      <c r="I149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -3253,7 +2951,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218791</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -3261,8 +2959,6 @@
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
-      <c r="H150" t="inlineStr"/>
-      <c r="I150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -3270,7 +2966,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-4977391470</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -3278,8 +2974,6 @@
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr"/>
-      <c r="I151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -3287,7 +2981,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-300005000</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -3295,8 +2989,6 @@
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
-      <c r="H152" t="inlineStr"/>
-      <c r="I152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -3304,7 +2996,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>1714211468</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -3312,8 +3004,6 @@
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr"/>
-      <c r="I153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -3321,7 +3011,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218791</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -3329,8 +3019,6 @@
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
-      <c r="H154" t="inlineStr"/>
-      <c r="I154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -3338,7 +3026,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-492005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -3346,8 +3034,6 @@
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -3355,7 +3041,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-839985680</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -3363,8 +3049,6 @@
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
-      <c r="H156" t="inlineStr"/>
-      <c r="I156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -3372,7 +3056,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>1714211467</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -3380,8 +3064,6 @@
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
-      <c r="H157" t="inlineStr"/>
-      <c r="I157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -3389,7 +3071,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218773</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -3397,8 +3079,6 @@
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
-      <c r="H158" t="inlineStr"/>
-      <c r="I158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -3406,7 +3086,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-311505000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -3414,8 +3094,6 @@
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr"/>
-      <c r="I159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -3423,7 +3101,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-44242005000</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -3431,8 +3109,6 @@
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
-      <c r="H160" t="inlineStr"/>
-      <c r="I160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -3440,7 +3116,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>1714211454</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -3448,8 +3124,6 @@
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr"/>
-      <c r="I161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -3457,7 +3131,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218771</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -3465,8 +3139,6 @@
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr"/>
-      <c r="H162" t="inlineStr"/>
-      <c r="I162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -3474,7 +3146,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>-4005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -3482,8 +3154,6 @@
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
-      <c r="H163" t="inlineStr"/>
-      <c r="I163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -3491,7 +3161,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-3004005000</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -3499,8 +3169,6 @@
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr"/>
-      <c r="I164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -3508,7 +3176,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>1714211454</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -3516,8 +3184,6 @@
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr"/>
-      <c r="I165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -3525,7 +3191,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218771</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -3533,8 +3199,6 @@
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr"/>
-      <c r="I166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -3542,7 +3206,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-3642005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -3550,8 +3214,6 @@
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr"/>
-      <c r="I167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -3559,7 +3221,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-4005000</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -3567,8 +3229,6 @@
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
-      <c r="H168" t="inlineStr"/>
-      <c r="I168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -3576,7 +3236,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>1714211454</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -3584,8 +3244,6 @@
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr"/>
-      <c r="H169" t="inlineStr"/>
-      <c r="I169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -3593,7 +3251,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218767</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -3601,8 +3259,6 @@
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr"/>
-      <c r="I170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -3610,7 +3266,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-292005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -3618,8 +3274,6 @@
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr"/>
-      <c r="H171" t="inlineStr"/>
-      <c r="I171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -3627,7 +3281,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-4987005000</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -3635,8 +3289,6 @@
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr"/>
-      <c r="I172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -3644,7 +3296,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>1714211454</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -3652,8 +3304,6 @@
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr"/>
-      <c r="I173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -3661,7 +3311,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218755</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -3669,8 +3319,6 @@
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
-      <c r="H174" t="inlineStr"/>
-      <c r="I174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -3678,7 +3326,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>-4639466260</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -3686,8 +3334,6 @@
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
-      <c r="H175" t="inlineStr"/>
-      <c r="I175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -3695,7 +3341,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-991005000</t>
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -3703,8 +3349,6 @@
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr"/>
-      <c r="H176" t="inlineStr"/>
-      <c r="I176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -3712,7 +3356,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>1714211434</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -3720,8 +3364,6 @@
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
-      <c r="H177" t="inlineStr"/>
-      <c r="I177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -3729,7 +3371,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218749</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -3737,8 +3379,6 @@
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr"/>
-      <c r="H178" t="inlineStr"/>
-      <c r="I178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -3746,7 +3386,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>-3092005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -3754,8 +3394,6 @@
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr"/>
-      <c r="H179" t="inlineStr"/>
-      <c r="I179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -3763,7 +3401,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-2186166880</t>
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -3771,8 +3409,6 @@
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr"/>
-      <c r="I180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -3780,7 +3416,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>1714211434</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -3788,8 +3424,6 @@
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
-      <c r="H181" t="inlineStr"/>
-      <c r="I181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -3797,7 +3431,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218748</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -3805,8 +3439,6 @@
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr"/>
-      <c r="H182" t="inlineStr"/>
-      <c r="I182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -3814,7 +3446,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>-263705024220</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -3822,8 +3454,6 @@
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
-      <c r="H183" t="inlineStr"/>
-      <c r="I183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -3831,7 +3461,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-787418400</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -3839,8 +3469,6 @@
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr"/>
-      <c r="H184" t="inlineStr"/>
-      <c r="I184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -3848,7 +3476,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>1714211434</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -3856,8 +3484,6 @@
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr"/>
-      <c r="I185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -3865,7 +3491,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218748</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -3873,8 +3499,6 @@
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr"/>
-      <c r="I186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -3882,7 +3506,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-312005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -3890,8 +3514,6 @@
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
-      <c r="H187" t="inlineStr"/>
-      <c r="I187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -3899,7 +3521,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-3663523530</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -3907,8 +3529,6 @@
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr"/>
-      <c r="I188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -3916,7 +3536,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>1714211433</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -3924,8 +3544,6 @@
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr"/>
-      <c r="I189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -3933,7 +3551,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218747</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -3941,8 +3559,6 @@
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
-      <c r="H190" t="inlineStr"/>
-      <c r="I190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -3950,7 +3566,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-331665000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -3958,8 +3574,6 @@
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
-      <c r="H191" t="inlineStr"/>
-      <c r="I191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -3967,7 +3581,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-618005000</t>
         </is>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -3975,8 +3589,6 @@
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr"/>
-      <c r="I192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -3984,7 +3596,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>1714211433</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -3992,8 +3604,6 @@
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr"/>
-      <c r="I193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -4001,7 +3611,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218747</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -4009,8 +3619,6 @@
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr"/>
-      <c r="I194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -4018,7 +3626,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>-4005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -4026,8 +3634,6 @@
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr"/>
-      <c r="I195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -4035,7 +3641,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-73408515000</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -4043,8 +3649,6 @@
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr"/>
-      <c r="I196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -4052,7 +3656,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>1714211433</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -4060,8 +3664,6 @@
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
-      <c r="I197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -4069,7 +3671,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218747</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -4077,8 +3679,6 @@
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
-      <c r="I198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -4086,7 +3686,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>-1090905000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -4094,8 +3694,6 @@
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
-      <c r="I199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -4103,7 +3701,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-320122820</t>
         </is>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -4111,8 +3709,6 @@
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
-      <c r="H200" t="inlineStr"/>
-      <c r="I200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -4120,7 +3716,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>1714211433</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -4128,8 +3724,6 @@
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr"/>
-      <c r="I201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -4137,7 +3731,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218730</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -4145,8 +3739,6 @@
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="inlineStr"/>
-      <c r="H202" t="inlineStr"/>
-      <c r="I202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -4154,7 +3746,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-4005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -4162,8 +3754,6 @@
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr"/>
-      <c r="H203" t="inlineStr"/>
-      <c r="I203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -4171,7 +3761,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-4005000</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -4179,8 +3769,6 @@
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="inlineStr"/>
-      <c r="H204" t="inlineStr"/>
-      <c r="I204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -4188,7 +3776,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>1714211433</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -4196,8 +3784,6 @@
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="inlineStr"/>
-      <c r="H205" t="inlineStr"/>
-      <c r="I205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -4205,7 +3791,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218730</t>
         </is>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -4213,8 +3799,6 @@
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr"/>
       <c r="G206" t="inlineStr"/>
-      <c r="H206" t="inlineStr"/>
-      <c r="I206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -4222,7 +3806,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-2866022900</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -4230,8 +3814,6 @@
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr"/>
-      <c r="H207" t="inlineStr"/>
-      <c r="I207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -4239,7 +3821,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-351395000</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -4247,8 +3829,6 @@
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
-      <c r="I208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -4256,7 +3836,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>1714211433</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -4264,8 +3844,6 @@
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
-      <c r="I209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -4273,7 +3851,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218729</t>
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -4281,8 +3859,6 @@
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
-      <c r="I210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -4290,7 +3866,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>-241755000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -4298,8 +3874,6 @@
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
-      <c r="I211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -4307,7 +3881,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-801195000</t>
         </is>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -4315,8 +3889,6 @@
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="inlineStr"/>
-      <c r="H212" t="inlineStr"/>
-      <c r="I212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -4324,7 +3896,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>1714211410</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -4332,8 +3904,6 @@
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr"/>
-      <c r="H213" t="inlineStr"/>
-      <c r="I213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -4341,7 +3911,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218729</t>
         </is>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -4349,8 +3919,6 @@
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr"/>
-      <c r="H214" t="inlineStr"/>
-      <c r="I214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -4358,7 +3926,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-512005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -4366,8 +3934,6 @@
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
-      <c r="H215" t="inlineStr"/>
-      <c r="I215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -4375,7 +3941,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-602005000</t>
         </is>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -4383,8 +3949,6 @@
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
-      <c r="I216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -4392,7 +3956,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>1714211410</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -4400,8 +3964,6 @@
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
-      <c r="H217" t="inlineStr"/>
-      <c r="I217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -4409,7 +3971,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218715</t>
         </is>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -4417,8 +3979,6 @@
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="inlineStr"/>
-      <c r="H218" t="inlineStr"/>
-      <c r="I218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -4426,7 +3986,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-721275000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -4434,8 +3994,6 @@
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr"/>
       <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
-      <c r="I219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -4443,7 +4001,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-670985000</t>
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -4451,8 +4009,6 @@
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
-      <c r="H220" t="inlineStr"/>
-      <c r="I220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -4460,7 +4016,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>1714211410</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -4468,8 +4024,6 @@
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr"/>
       <c r="G221" t="inlineStr"/>
-      <c r="H221" t="inlineStr"/>
-      <c r="I221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -4477,7 +4031,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218714</t>
         </is>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -4485,8 +4039,6 @@
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr"/>
       <c r="G222" t="inlineStr"/>
-      <c r="H222" t="inlineStr"/>
-      <c r="I222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -4494,7 +4046,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>-2284928480</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -4502,8 +4054,6 @@
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="inlineStr"/>
-      <c r="H223" t="inlineStr"/>
-      <c r="I223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -4511,7 +4061,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-2230265900</t>
         </is>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -4519,8 +4069,6 @@
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr"/>
-      <c r="H224" t="inlineStr"/>
-      <c r="I224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -4528,7 +4076,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>1714211408</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -4536,8 +4084,6 @@
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="inlineStr"/>
-      <c r="H225" t="inlineStr"/>
-      <c r="I225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -4545,7 +4091,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218710</t>
         </is>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -4553,8 +4099,6 @@
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr"/>
       <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
-      <c r="I226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -4562,7 +4106,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>-701295000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -4570,8 +4114,6 @@
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
-      <c r="I227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -4579,7 +4121,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-292283000</t>
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -4587,8 +4129,6 @@
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
-      <c r="H228" t="inlineStr"/>
-      <c r="I228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -4596,7 +4136,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>1714211408</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -4604,8 +4144,6 @@
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="inlineStr"/>
-      <c r="H229" t="inlineStr"/>
-      <c r="I229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -4613,7 +4151,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218709</t>
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -4621,8 +4159,6 @@
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="inlineStr"/>
-      <c r="H230" t="inlineStr"/>
-      <c r="I230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -4630,7 +4166,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-3092005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -4638,8 +4174,6 @@
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr"/>
       <c r="G231" t="inlineStr"/>
-      <c r="H231" t="inlineStr"/>
-      <c r="I231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -4647,7 +4181,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-1852005000</t>
         </is>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -4655,8 +4189,6 @@
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr"/>
       <c r="G232" t="inlineStr"/>
-      <c r="H232" t="inlineStr"/>
-      <c r="I232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -4664,7 +4196,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>1714211388</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -4672,8 +4204,6 @@
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="inlineStr"/>
-      <c r="H233" t="inlineStr"/>
-      <c r="I233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -4681,7 +4211,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218709</t>
         </is>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -4689,8 +4219,6 @@
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="inlineStr"/>
       <c r="G234" t="inlineStr"/>
-      <c r="H234" t="inlineStr"/>
-      <c r="I234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -4698,7 +4226,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>-403932680</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -4706,8 +4234,6 @@
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="inlineStr"/>
-      <c r="H235" t="inlineStr"/>
-      <c r="I235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -4715,7 +4241,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-3858135000</t>
         </is>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -4723,8 +4249,6 @@
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="inlineStr"/>
-      <c r="H236" t="inlineStr"/>
-      <c r="I236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -4732,7 +4256,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>1714211375</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -4740,8 +4264,6 @@
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr"/>
       <c r="G237" t="inlineStr"/>
-      <c r="H237" t="inlineStr"/>
-      <c r="I237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -4749,7 +4271,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218695</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -4757,8 +4279,6 @@
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="inlineStr"/>
-      <c r="H238" t="inlineStr"/>
-      <c r="I238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -4766,7 +4286,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>-2021235000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -4774,8 +4294,6 @@
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr"/>
       <c r="G239" t="inlineStr"/>
-      <c r="H239" t="inlineStr"/>
-      <c r="I239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -4783,7 +4301,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-2559412170</t>
         </is>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -4791,8 +4309,6 @@
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr"/>
       <c r="G240" t="inlineStr"/>
-      <c r="H240" t="inlineStr"/>
-      <c r="I240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -4800,7 +4316,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>1714211372</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -4808,8 +4324,6 @@
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr"/>
       <c r="G241" t="inlineStr"/>
-      <c r="H241" t="inlineStr"/>
-      <c r="I241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -4817,7 +4331,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218695</t>
         </is>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -4825,8 +4339,6 @@
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr"/>
       <c r="G242" t="inlineStr"/>
-      <c r="H242" t="inlineStr"/>
-      <c r="I242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -4834,7 +4346,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>-1141005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -4842,8 +4354,6 @@
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="inlineStr"/>
-      <c r="H243" t="inlineStr"/>
-      <c r="I243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -4851,7 +4361,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-69992005000</t>
         </is>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -4859,8 +4369,6 @@
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="inlineStr"/>
       <c r="G244" t="inlineStr"/>
-      <c r="H244" t="inlineStr"/>
-      <c r="I244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -4868,7 +4376,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>1714211372</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -4876,8 +4384,6 @@
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="inlineStr"/>
       <c r="G245" t="inlineStr"/>
-      <c r="H245" t="inlineStr"/>
-      <c r="I245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -4885,7 +4391,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218693</t>
         </is>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -4893,8 +4399,6 @@
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr"/>
       <c r="G246" t="inlineStr"/>
-      <c r="H246" t="inlineStr"/>
-      <c r="I246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -4902,7 +4406,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>-7315041500</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C247" t="inlineStr"/>
@@ -4910,8 +4414,6 @@
       <c r="E247" t="inlineStr"/>
       <c r="F247" t="inlineStr"/>
       <c r="G247" t="inlineStr"/>
-      <c r="H247" t="inlineStr"/>
-      <c r="I247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -4919,7 +4421,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-492005000</t>
         </is>
       </c>
       <c r="C248" t="inlineStr"/>
@@ -4927,8 +4429,6 @@
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="inlineStr"/>
       <c r="G248" t="inlineStr"/>
-      <c r="H248" t="inlineStr"/>
-      <c r="I248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -4936,7 +4436,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>1714211370</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -4944,8 +4444,6 @@
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="inlineStr"/>
       <c r="G249" t="inlineStr"/>
-      <c r="H249" t="inlineStr"/>
-      <c r="I249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -4953,7 +4451,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218689</t>
         </is>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -4961,8 +4459,6 @@
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="inlineStr"/>
       <c r="G250" t="inlineStr"/>
-      <c r="H250" t="inlineStr"/>
-      <c r="I250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -4970,7 +4466,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>-397481100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C251" t="inlineStr"/>
@@ -4978,8 +4474,6 @@
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="inlineStr"/>
       <c r="G251" t="inlineStr"/>
-      <c r="H251" t="inlineStr"/>
-      <c r="I251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -4987,7 +4481,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-381615000</t>
         </is>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -4995,8 +4489,6 @@
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="inlineStr"/>
       <c r="G252" t="inlineStr"/>
-      <c r="H252" t="inlineStr"/>
-      <c r="I252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -5004,7 +4496,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>1714211369</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C253" t="inlineStr"/>
@@ -5012,8 +4504,6 @@
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="inlineStr"/>
       <c r="G253" t="inlineStr"/>
-      <c r="H253" t="inlineStr"/>
-      <c r="I253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -5021,7 +4511,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218689</t>
         </is>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -5029,8 +4519,6 @@
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="inlineStr"/>
       <c r="G254" t="inlineStr"/>
-      <c r="H254" t="inlineStr"/>
-      <c r="I254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -5038,7 +4526,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>-4005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C255" t="inlineStr"/>
@@ -5046,8 +4534,6 @@
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="inlineStr"/>
       <c r="G255" t="inlineStr"/>
-      <c r="H255" t="inlineStr"/>
-      <c r="I255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -5055,7 +4541,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-6044280</t>
         </is>
       </c>
       <c r="C256" t="inlineStr"/>
@@ -5063,8 +4549,6 @@
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="inlineStr"/>
       <c r="G256" t="inlineStr"/>
-      <c r="H256" t="inlineStr"/>
-      <c r="I256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -5072,7 +4556,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>1714211369</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C257" t="inlineStr"/>
@@ -5080,8 +4564,6 @@
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="inlineStr"/>
       <c r="G257" t="inlineStr"/>
-      <c r="H257" t="inlineStr"/>
-      <c r="I257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -5089,7 +4571,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218689</t>
         </is>
       </c>
       <c r="C258" t="inlineStr"/>
@@ -5097,8 +4579,6 @@
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="inlineStr"/>
       <c r="G258" t="inlineStr"/>
-      <c r="H258" t="inlineStr"/>
-      <c r="I258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -5106,7 +4586,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>-16992005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C259" t="inlineStr"/>
@@ -5114,8 +4594,6 @@
       <c r="E259" t="inlineStr"/>
       <c r="F259" t="inlineStr"/>
       <c r="G259" t="inlineStr"/>
-      <c r="H259" t="inlineStr"/>
-      <c r="I259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -5123,7 +4601,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-1020975000</t>
         </is>
       </c>
       <c r="C260" t="inlineStr"/>
@@ -5131,8 +4609,6 @@
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="inlineStr"/>
       <c r="G260" t="inlineStr"/>
-      <c r="H260" t="inlineStr"/>
-      <c r="I260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -5140,7 +4616,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>1714211361</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -5148,8 +4624,6 @@
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="inlineStr"/>
       <c r="G261" t="inlineStr"/>
-      <c r="H261" t="inlineStr"/>
-      <c r="I261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -5157,7 +4631,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218689</t>
         </is>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -5165,8 +4639,6 @@
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="inlineStr"/>
       <c r="G262" t="inlineStr"/>
-      <c r="H262" t="inlineStr"/>
-      <c r="I262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -5174,7 +4646,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>-4005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -5182,8 +4654,6 @@
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="inlineStr"/>
       <c r="G263" t="inlineStr"/>
-      <c r="H263" t="inlineStr"/>
-      <c r="I263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -5191,7 +4661,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-1205975000</t>
         </is>
       </c>
       <c r="C264" t="inlineStr"/>
@@ -5199,8 +4669,6 @@
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="inlineStr"/>
       <c r="G264" t="inlineStr"/>
-      <c r="H264" t="inlineStr"/>
-      <c r="I264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -5208,7 +4676,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>1714211353</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -5216,8 +4684,6 @@
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="inlineStr"/>
       <c r="G265" t="inlineStr"/>
-      <c r="H265" t="inlineStr"/>
-      <c r="I265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -5225,7 +4691,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218689</t>
         </is>
       </c>
       <c r="C266" t="inlineStr"/>
@@ -5233,8 +4699,6 @@
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="inlineStr"/>
       <c r="G266" t="inlineStr"/>
-      <c r="H266" t="inlineStr"/>
-      <c r="I266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -5242,7 +4706,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>-4005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C267" t="inlineStr"/>
@@ -5250,8 +4714,6 @@
       <c r="E267" t="inlineStr"/>
       <c r="F267" t="inlineStr"/>
       <c r="G267" t="inlineStr"/>
-      <c r="H267" t="inlineStr"/>
-      <c r="I267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -5259,7 +4721,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-4005000</t>
         </is>
       </c>
       <c r="C268" t="inlineStr"/>
@@ -5267,8 +4729,6 @@
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr"/>
       <c r="G268" t="inlineStr"/>
-      <c r="H268" t="inlineStr"/>
-      <c r="I268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -5276,7 +4736,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>1714211353</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C269" t="inlineStr"/>
@@ -5284,8 +4744,6 @@
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="inlineStr"/>
       <c r="G269" t="inlineStr"/>
-      <c r="H269" t="inlineStr"/>
-      <c r="I269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -5293,7 +4751,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218688</t>
         </is>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -5301,8 +4759,6 @@
       <c r="E270" t="inlineStr"/>
       <c r="F270" t="inlineStr"/>
       <c r="G270" t="inlineStr"/>
-      <c r="H270" t="inlineStr"/>
-      <c r="I270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -5310,7 +4766,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>-7992055630</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C271" t="inlineStr"/>
@@ -5318,8 +4774,6 @@
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="inlineStr"/>
       <c r="G271" t="inlineStr"/>
-      <c r="H271" t="inlineStr"/>
-      <c r="I271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -5327,7 +4781,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-992005000</t>
         </is>
       </c>
       <c r="C272" t="inlineStr"/>
@@ -5335,8 +4789,6 @@
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="inlineStr"/>
       <c r="G272" t="inlineStr"/>
-      <c r="H272" t="inlineStr"/>
-      <c r="I272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -5344,7 +4796,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>1714211350</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C273" t="inlineStr"/>
@@ -5352,8 +4804,6 @@
       <c r="E273" t="inlineStr"/>
       <c r="F273" t="inlineStr"/>
       <c r="G273" t="inlineStr"/>
-      <c r="H273" t="inlineStr"/>
-      <c r="I273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -5361,7 +4811,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218674</t>
         </is>
       </c>
       <c r="C274" t="inlineStr"/>
@@ -5369,8 +4819,6 @@
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="inlineStr"/>
       <c r="G274" t="inlineStr"/>
-      <c r="H274" t="inlineStr"/>
-      <c r="I274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -5378,7 +4826,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>-69992005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C275" t="inlineStr"/>
@@ -5386,8 +4834,6 @@
       <c r="E275" t="inlineStr"/>
       <c r="F275" t="inlineStr"/>
       <c r="G275" t="inlineStr"/>
-      <c r="H275" t="inlineStr"/>
-      <c r="I275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -5395,7 +4841,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-1460585000</t>
         </is>
       </c>
       <c r="C276" t="inlineStr"/>
@@ -5403,8 +4849,6 @@
       <c r="E276" t="inlineStr"/>
       <c r="F276" t="inlineStr"/>
       <c r="G276" t="inlineStr"/>
-      <c r="H276" t="inlineStr"/>
-      <c r="I276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -5412,7 +4856,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>1714211327</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C277" t="inlineStr"/>
@@ -5420,8 +4864,6 @@
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr"/>
       <c r="G277" t="inlineStr"/>
-      <c r="H277" t="inlineStr"/>
-      <c r="I277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -5429,7 +4871,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218674</t>
         </is>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -5437,8 +4879,6 @@
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="inlineStr"/>
       <c r="G278" t="inlineStr"/>
-      <c r="H278" t="inlineStr"/>
-      <c r="I278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -5446,7 +4886,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>-92005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -5454,8 +4894,6 @@
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="inlineStr"/>
       <c r="G279" t="inlineStr"/>
-      <c r="H279" t="inlineStr"/>
-      <c r="I279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -5463,7 +4901,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-312005000</t>
         </is>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -5471,8 +4909,6 @@
       <c r="E280" t="inlineStr"/>
       <c r="F280" t="inlineStr"/>
       <c r="G280" t="inlineStr"/>
-      <c r="H280" t="inlineStr"/>
-      <c r="I280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -5480,7 +4916,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>1714211327</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -5488,8 +4924,6 @@
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="inlineStr"/>
       <c r="G281" t="inlineStr"/>
-      <c r="H281" t="inlineStr"/>
-      <c r="I281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -5497,7 +4931,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218674</t>
         </is>
       </c>
       <c r="C282" t="inlineStr"/>
@@ -5505,8 +4939,6 @@
       <c r="E282" t="inlineStr"/>
       <c r="F282" t="inlineStr"/>
       <c r="G282" t="inlineStr"/>
-      <c r="H282" t="inlineStr"/>
-      <c r="I282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -5514,7 +4946,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>-1570425000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C283" t="inlineStr"/>
@@ -5522,8 +4954,6 @@
       <c r="E283" t="inlineStr"/>
       <c r="F283" t="inlineStr"/>
       <c r="G283" t="inlineStr"/>
-      <c r="H283" t="inlineStr"/>
-      <c r="I283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -5531,7 +4961,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-1012065000</t>
         </is>
       </c>
       <c r="C284" t="inlineStr"/>
@@ -5539,8 +4969,6 @@
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="inlineStr"/>
       <c r="G284" t="inlineStr"/>
-      <c r="H284" t="inlineStr"/>
-      <c r="I284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -5548,7 +4976,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>1714211310</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C285" t="inlineStr"/>
@@ -5556,8 +4984,6 @@
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="inlineStr"/>
       <c r="G285" t="inlineStr"/>
-      <c r="H285" t="inlineStr"/>
-      <c r="I285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -5565,7 +4991,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218673</t>
         </is>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -5573,8 +4999,6 @@
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="inlineStr"/>
       <c r="G286" t="inlineStr"/>
-      <c r="H286" t="inlineStr"/>
-      <c r="I286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -5582,7 +5006,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>-1636745680</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C287" t="inlineStr"/>
@@ -5590,8 +5014,6 @@
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="inlineStr"/>
       <c r="G287" t="inlineStr"/>
-      <c r="H287" t="inlineStr"/>
-      <c r="I287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -5599,7 +5021,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-1417908580</t>
         </is>
       </c>
       <c r="C288" t="inlineStr"/>
@@ -5607,8 +5029,6 @@
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
-      <c r="H288" t="inlineStr"/>
-      <c r="I288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -5616,7 +5036,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>1714211309</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C289" t="inlineStr"/>
@@ -5624,8 +5044,6 @@
       <c r="E289" t="inlineStr"/>
       <c r="F289" t="inlineStr"/>
       <c r="G289" t="inlineStr"/>
-      <c r="H289" t="inlineStr"/>
-      <c r="I289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -5633,7 +5051,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218673</t>
         </is>
       </c>
       <c r="C290" t="inlineStr"/>
@@ -5641,8 +5059,6 @@
       <c r="E290" t="inlineStr"/>
       <c r="F290" t="inlineStr"/>
       <c r="G290" t="inlineStr"/>
-      <c r="H290" t="inlineStr"/>
-      <c r="I290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -5650,7 +5066,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>-6044280</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C291" t="inlineStr"/>
@@ -5658,8 +5074,6 @@
       <c r="E291" t="inlineStr"/>
       <c r="F291" t="inlineStr"/>
       <c r="G291" t="inlineStr"/>
-      <c r="H291" t="inlineStr"/>
-      <c r="I291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -5667,7 +5081,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-1501019690</t>
         </is>
       </c>
       <c r="C292" t="inlineStr"/>
@@ -5675,8 +5089,6 @@
       <c r="E292" t="inlineStr"/>
       <c r="F292" t="inlineStr"/>
       <c r="G292" t="inlineStr"/>
-      <c r="H292" t="inlineStr"/>
-      <c r="I292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -5684,7 +5096,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>1714211309</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C293" t="inlineStr"/>
@@ -5692,8 +5104,6 @@
       <c r="E293" t="inlineStr"/>
       <c r="F293" t="inlineStr"/>
       <c r="G293" t="inlineStr"/>
-      <c r="H293" t="inlineStr"/>
-      <c r="I293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -5701,7 +5111,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218673</t>
         </is>
       </c>
       <c r="C294" t="inlineStr"/>
@@ -5709,8 +5119,6 @@
       <c r="E294" t="inlineStr"/>
       <c r="F294" t="inlineStr"/>
       <c r="G294" t="inlineStr"/>
-      <c r="H294" t="inlineStr"/>
-      <c r="I294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -5718,7 +5126,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>-862005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C295" t="inlineStr"/>
@@ -5726,8 +5134,6 @@
       <c r="E295" t="inlineStr"/>
       <c r="F295" t="inlineStr"/>
       <c r="G295" t="inlineStr"/>
-      <c r="H295" t="inlineStr"/>
-      <c r="I295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -5735,7 +5141,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-6347218460</t>
         </is>
       </c>
       <c r="C296" t="inlineStr"/>
@@ -5743,8 +5149,6 @@
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="inlineStr"/>
       <c r="G296" t="inlineStr"/>
-      <c r="H296" t="inlineStr"/>
-      <c r="I296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -5752,7 +5156,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>1714211301</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C297" t="inlineStr"/>
@@ -5760,8 +5164,6 @@
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="inlineStr"/>
       <c r="G297" t="inlineStr"/>
-      <c r="H297" t="inlineStr"/>
-      <c r="I297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -5769,7 +5171,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218645</t>
         </is>
       </c>
       <c r="C298" t="inlineStr"/>
@@ -5777,8 +5179,6 @@
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="inlineStr"/>
       <c r="G298" t="inlineStr"/>
-      <c r="H298" t="inlineStr"/>
-      <c r="I298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -5786,7 +5186,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>-2169825000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C299" t="inlineStr"/>
@@ -5794,8 +5194,6 @@
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="inlineStr"/>
       <c r="G299" t="inlineStr"/>
-      <c r="H299" t="inlineStr"/>
-      <c r="I299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -5803,7 +5201,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-3658335000</t>
         </is>
       </c>
       <c r="C300" t="inlineStr"/>
@@ -5811,8 +5209,6 @@
       <c r="E300" t="inlineStr"/>
       <c r="F300" t="inlineStr"/>
       <c r="G300" t="inlineStr"/>
-      <c r="H300" t="inlineStr"/>
-      <c r="I300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -5820,7 +5216,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>1714211294</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C301" t="inlineStr"/>
@@ -5828,8 +5224,6 @@
       <c r="E301" t="inlineStr"/>
       <c r="F301" t="inlineStr"/>
       <c r="G301" t="inlineStr"/>
-      <c r="H301" t="inlineStr"/>
-      <c r="I301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -5837,7 +5231,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218645</t>
         </is>
       </c>
       <c r="C302" t="inlineStr"/>
@@ -5845,8 +5239,6 @@
       <c r="E302" t="inlineStr"/>
       <c r="F302" t="inlineStr"/>
       <c r="G302" t="inlineStr"/>
-      <c r="H302" t="inlineStr"/>
-      <c r="I302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -5854,7 +5246,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>-992005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C303" t="inlineStr"/>
@@ -5862,8 +5254,6 @@
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr"/>
       <c r="G303" t="inlineStr"/>
-      <c r="H303" t="inlineStr"/>
-      <c r="I303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -5871,7 +5261,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>10715910850</t>
         </is>
       </c>
       <c r="C304" t="inlineStr"/>
@@ -5879,8 +5269,6 @@
       <c r="E304" t="inlineStr"/>
       <c r="F304" t="inlineStr"/>
       <c r="G304" t="inlineStr"/>
-      <c r="H304" t="inlineStr"/>
-      <c r="I304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -5888,7 +5276,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>1714211288</t>
+          <t>TRANSFER_IN</t>
         </is>
       </c>
       <c r="C305" t="inlineStr"/>
@@ -5896,8 +5284,6 @@
       <c r="E305" t="inlineStr"/>
       <c r="F305" t="inlineStr"/>
       <c r="G305" t="inlineStr"/>
-      <c r="H305" t="inlineStr"/>
-      <c r="I305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -5905,7 +5291,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218642</t>
         </is>
       </c>
       <c r="C306" t="inlineStr"/>
@@ -5913,8 +5299,6 @@
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="inlineStr"/>
       <c r="G306" t="inlineStr"/>
-      <c r="H306" t="inlineStr"/>
-      <c r="I306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -5922,7 +5306,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>-22696278000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C307" t="inlineStr"/>
@@ -5930,8 +5314,6 @@
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="inlineStr"/>
       <c r="G307" t="inlineStr"/>
-      <c r="H307" t="inlineStr"/>
-      <c r="I307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -5939,7 +5321,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>32997995000</t>
         </is>
       </c>
       <c r="C308" t="inlineStr"/>
@@ -5947,8 +5329,6 @@
       <c r="E308" t="inlineStr"/>
       <c r="F308" t="inlineStr"/>
       <c r="G308" t="inlineStr"/>
-      <c r="H308" t="inlineStr"/>
-      <c r="I308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -5956,7 +5336,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>1714211288</t>
+          <t>TRANSFER_IN</t>
         </is>
       </c>
       <c r="C309" t="inlineStr"/>
@@ -5964,8 +5344,6 @@
       <c r="E309" t="inlineStr"/>
       <c r="F309" t="inlineStr"/>
       <c r="G309" t="inlineStr"/>
-      <c r="H309" t="inlineStr"/>
-      <c r="I309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -5973,7 +5351,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218642</t>
         </is>
       </c>
       <c r="C310" t="inlineStr"/>
@@ -5981,8 +5359,6 @@
       <c r="E310" t="inlineStr"/>
       <c r="F310" t="inlineStr"/>
       <c r="G310" t="inlineStr"/>
-      <c r="H310" t="inlineStr"/>
-      <c r="I310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -5990,7 +5366,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>-373196050</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C311" t="inlineStr"/>
@@ -5998,8 +5374,6 @@
       <c r="E311" t="inlineStr"/>
       <c r="F311" t="inlineStr"/>
       <c r="G311" t="inlineStr"/>
-      <c r="H311" t="inlineStr"/>
-      <c r="I311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -6007,7 +5381,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>7011621815</t>
         </is>
       </c>
       <c r="C312" t="inlineStr"/>
@@ -6015,8 +5389,6 @@
       <c r="E312" t="inlineStr"/>
       <c r="F312" t="inlineStr"/>
       <c r="G312" t="inlineStr"/>
-      <c r="H312" t="inlineStr"/>
-      <c r="I312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -6024,7 +5396,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>1714211288</t>
+          <t>TRANSFER_IN</t>
         </is>
       </c>
       <c r="C313" t="inlineStr"/>
@@ -6032,8 +5404,6 @@
       <c r="E313" t="inlineStr"/>
       <c r="F313" t="inlineStr"/>
       <c r="G313" t="inlineStr"/>
-      <c r="H313" t="inlineStr"/>
-      <c r="I313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -6041,7 +5411,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218642</t>
         </is>
       </c>
       <c r="C314" t="inlineStr"/>
@@ -6049,8 +5419,6 @@
       <c r="E314" t="inlineStr"/>
       <c r="F314" t="inlineStr"/>
       <c r="G314" t="inlineStr"/>
-      <c r="H314" t="inlineStr"/>
-      <c r="I314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -6058,7 +5426,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>-301441000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C315" t="inlineStr"/>
@@ -6066,8 +5434,6 @@
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="inlineStr"/>
       <c r="G315" t="inlineStr"/>
-      <c r="H315" t="inlineStr"/>
-      <c r="I315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -6075,7 +5441,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>6097995000</t>
         </is>
       </c>
       <c r="C316" t="inlineStr"/>
@@ -6083,8 +5449,6 @@
       <c r="E316" t="inlineStr"/>
       <c r="F316" t="inlineStr"/>
       <c r="G316" t="inlineStr"/>
-      <c r="H316" t="inlineStr"/>
-      <c r="I316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -6092,7 +5456,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>1714211288</t>
+          <t>TRANSFER_IN</t>
         </is>
       </c>
       <c r="C317" t="inlineStr"/>
@@ -6100,8 +5464,6 @@
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr"/>
       <c r="G317" t="inlineStr"/>
-      <c r="H317" t="inlineStr"/>
-      <c r="I317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -6109,7 +5471,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218642</t>
         </is>
       </c>
       <c r="C318" t="inlineStr"/>
@@ -6117,8 +5479,6 @@
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr"/>
       <c r="G318" t="inlineStr"/>
-      <c r="H318" t="inlineStr"/>
-      <c r="I318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -6126,7 +5486,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>-4005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C319" t="inlineStr"/>
@@ -6134,8 +5494,6 @@
       <c r="E319" t="inlineStr"/>
       <c r="F319" t="inlineStr"/>
       <c r="G319" t="inlineStr"/>
-      <c r="H319" t="inlineStr"/>
-      <c r="I319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -6143,7 +5501,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>82097884000</t>
         </is>
       </c>
       <c r="C320" t="inlineStr"/>
@@ -6151,8 +5509,6 @@
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="inlineStr"/>
       <c r="G320" t="inlineStr"/>
-      <c r="H320" t="inlineStr"/>
-      <c r="I320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -6160,7 +5516,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>1714211288</t>
+          <t>TRANSFER_IN</t>
         </is>
       </c>
       <c r="C321" t="inlineStr"/>
@@ -6168,8 +5524,6 @@
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr"/>
       <c r="G321" t="inlineStr"/>
-      <c r="H321" t="inlineStr"/>
-      <c r="I321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -6177,7 +5531,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218642</t>
         </is>
       </c>
       <c r="C322" t="inlineStr"/>
@@ -6185,8 +5539,6 @@
       <c r="E322" t="inlineStr"/>
       <c r="F322" t="inlineStr"/>
       <c r="G322" t="inlineStr"/>
-      <c r="H322" t="inlineStr"/>
-      <c r="I322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -6194,7 +5546,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>6297995000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C323" t="inlineStr"/>
@@ -6202,8 +5554,6 @@
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr"/>
       <c r="G323" t="inlineStr"/>
-      <c r="H323" t="inlineStr"/>
-      <c r="I323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -6211,7 +5561,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>TRANSFER_IN</t>
+          <t>6514125000</t>
         </is>
       </c>
       <c r="C324" t="inlineStr"/>
@@ -6219,8 +5569,6 @@
       <c r="E324" t="inlineStr"/>
       <c r="F324" t="inlineStr"/>
       <c r="G324" t="inlineStr"/>
-      <c r="H324" t="inlineStr"/>
-      <c r="I324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -6228,7 +5576,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>1714211284</t>
+          <t>TRANSFER_IN</t>
         </is>
       </c>
       <c r="C325" t="inlineStr"/>
@@ -6236,8 +5584,6 @@
       <c r="E325" t="inlineStr"/>
       <c r="F325" t="inlineStr"/>
       <c r="G325" t="inlineStr"/>
-      <c r="H325" t="inlineStr"/>
-      <c r="I325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -6245,7 +5591,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218642</t>
         </is>
       </c>
       <c r="C326" t="inlineStr"/>
@@ -6253,8 +5599,6 @@
       <c r="E326" t="inlineStr"/>
       <c r="F326" t="inlineStr"/>
       <c r="G326" t="inlineStr"/>
-      <c r="H326" t="inlineStr"/>
-      <c r="I326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -6262,7 +5606,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>3828995000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C327" t="inlineStr"/>
@@ -6270,8 +5614,6 @@
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr"/>
       <c r="G327" t="inlineStr"/>
-      <c r="H327" t="inlineStr"/>
-      <c r="I327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -6279,7 +5621,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>TRANSFER_IN</t>
+          <t>2159997995000</t>
         </is>
       </c>
       <c r="C328" t="inlineStr"/>
@@ -6287,8 +5629,6 @@
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr"/>
       <c r="G328" t="inlineStr"/>
-      <c r="H328" t="inlineStr"/>
-      <c r="I328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -6296,7 +5636,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>1714211284</t>
+          <t>TRANSFER_IN</t>
         </is>
       </c>
       <c r="C329" t="inlineStr"/>
@@ -6304,8 +5644,6 @@
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr"/>
       <c r="G329" t="inlineStr"/>
-      <c r="H329" t="inlineStr"/>
-      <c r="I329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -6313,7 +5651,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218642</t>
         </is>
       </c>
       <c r="C330" t="inlineStr"/>
@@ -6321,8 +5659,6 @@
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr"/>
       <c r="G330" t="inlineStr"/>
-      <c r="H330" t="inlineStr"/>
-      <c r="I330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -6330,7 +5666,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>3989066304</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C331" t="inlineStr"/>
@@ -6338,8 +5674,6 @@
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr"/>
       <c r="G331" t="inlineStr"/>
-      <c r="H331" t="inlineStr"/>
-      <c r="I331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -6347,7 +5681,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>TRANSFER_IN</t>
+          <t>39780195065</t>
         </is>
       </c>
       <c r="C332" t="inlineStr"/>
@@ -6355,8 +5689,6 @@
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr"/>
       <c r="G332" t="inlineStr"/>
-      <c r="H332" t="inlineStr"/>
-      <c r="I332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -6364,7 +5696,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>1714211284</t>
+          <t>TRANSFER_IN</t>
         </is>
       </c>
       <c r="C333" t="inlineStr"/>
@@ -6372,8 +5704,6 @@
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr"/>
       <c r="G333" t="inlineStr"/>
-      <c r="H333" t="inlineStr"/>
-      <c r="I333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -6381,7 +5711,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218642</t>
         </is>
       </c>
       <c r="C334" t="inlineStr"/>
@@ -6389,8 +5719,6 @@
       <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr"/>
       <c r="G334" t="inlineStr"/>
-      <c r="H334" t="inlineStr"/>
-      <c r="I334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -6398,7 +5726,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>3979995000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C335" t="inlineStr"/>
@@ -6406,8 +5734,6 @@
       <c r="E335" t="inlineStr"/>
       <c r="F335" t="inlineStr"/>
       <c r="G335" t="inlineStr"/>
-      <c r="H335" t="inlineStr"/>
-      <c r="I335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -6415,7 +5741,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>TRANSFER_IN</t>
+          <t>49997995000</t>
         </is>
       </c>
       <c r="C336" t="inlineStr"/>
@@ -6423,8 +5749,6 @@
       <c r="E336" t="inlineStr"/>
       <c r="F336" t="inlineStr"/>
       <c r="G336" t="inlineStr"/>
-      <c r="H336" t="inlineStr"/>
-      <c r="I336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -6432,7 +5756,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>1714211284</t>
+          <t>TRANSFER_IN</t>
         </is>
       </c>
       <c r="C337" t="inlineStr"/>
@@ -6440,8 +5764,6 @@
       <c r="E337" t="inlineStr"/>
       <c r="F337" t="inlineStr"/>
       <c r="G337" t="inlineStr"/>
-      <c r="H337" t="inlineStr"/>
-      <c r="I337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -6449,7 +5771,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218642</t>
         </is>
       </c>
       <c r="C338" t="inlineStr"/>
@@ -6457,8 +5779,6 @@
       <c r="E338" t="inlineStr"/>
       <c r="F338" t="inlineStr"/>
       <c r="G338" t="inlineStr"/>
-      <c r="H338" t="inlineStr"/>
-      <c r="I338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -6466,7 +5786,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>12458517695</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C339" t="inlineStr"/>
@@ -6474,8 +5794,6 @@
       <c r="E339" t="inlineStr"/>
       <c r="F339" t="inlineStr"/>
       <c r="G339" t="inlineStr"/>
-      <c r="H339" t="inlineStr"/>
-      <c r="I339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -6483,7 +5801,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>TRANSFER_IN</t>
+          <t>6997995000</t>
         </is>
       </c>
       <c r="C340" t="inlineStr"/>
@@ -6491,8 +5809,6 @@
       <c r="E340" t="inlineStr"/>
       <c r="F340" t="inlineStr"/>
       <c r="G340" t="inlineStr"/>
-      <c r="H340" t="inlineStr"/>
-      <c r="I340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -6500,7 +5816,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>1714211281</t>
+          <t>TRANSFER_IN</t>
         </is>
       </c>
       <c r="C341" t="inlineStr"/>
@@ -6508,8 +5824,6 @@
       <c r="E341" t="inlineStr"/>
       <c r="F341" t="inlineStr"/>
       <c r="G341" t="inlineStr"/>
-      <c r="H341" t="inlineStr"/>
-      <c r="I341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -6517,7 +5831,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218642</t>
         </is>
       </c>
       <c r="C342" t="inlineStr"/>
@@ -6525,8 +5839,6 @@
       <c r="E342" t="inlineStr"/>
       <c r="F342" t="inlineStr"/>
       <c r="G342" t="inlineStr"/>
-      <c r="H342" t="inlineStr"/>
-      <c r="I342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -6534,7 +5846,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>-21787385000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C343" t="inlineStr"/>
@@ -6542,8 +5854,6 @@
       <c r="E343" t="inlineStr"/>
       <c r="F343" t="inlineStr"/>
       <c r="G343" t="inlineStr"/>
-      <c r="H343" t="inlineStr"/>
-      <c r="I343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -6551,7 +5861,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>14997995000</t>
         </is>
       </c>
       <c r="C344" t="inlineStr"/>
@@ -6559,8 +5869,6 @@
       <c r="E344" t="inlineStr"/>
       <c r="F344" t="inlineStr"/>
       <c r="G344" t="inlineStr"/>
-      <c r="H344" t="inlineStr"/>
-      <c r="I344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -6568,7 +5876,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>1714211271</t>
+          <t>TRANSFER_IN</t>
         </is>
       </c>
       <c r="C345" t="inlineStr"/>
@@ -6576,8 +5884,6 @@
       <c r="E345" t="inlineStr"/>
       <c r="F345" t="inlineStr"/>
       <c r="G345" t="inlineStr"/>
-      <c r="H345" t="inlineStr"/>
-      <c r="I345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -6585,7 +5891,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218642</t>
         </is>
       </c>
       <c r="C346" t="inlineStr"/>
@@ -6593,8 +5899,6 @@
       <c r="E346" t="inlineStr"/>
       <c r="F346" t="inlineStr"/>
       <c r="G346" t="inlineStr"/>
-      <c r="H346" t="inlineStr"/>
-      <c r="I346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -6602,7 +5906,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>-98482380</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C347" t="inlineStr"/>
@@ -6610,8 +5914,6 @@
       <c r="E347" t="inlineStr"/>
       <c r="F347" t="inlineStr"/>
       <c r="G347" t="inlineStr"/>
-      <c r="H347" t="inlineStr"/>
-      <c r="I347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -6619,7 +5921,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>28437551640</t>
         </is>
       </c>
       <c r="C348" t="inlineStr"/>
@@ -6627,8 +5929,6 @@
       <c r="E348" t="inlineStr"/>
       <c r="F348" t="inlineStr"/>
       <c r="G348" t="inlineStr"/>
-      <c r="H348" t="inlineStr"/>
-      <c r="I348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -6636,7 +5936,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>1714211271</t>
+          <t>TRANSFER_IN</t>
         </is>
       </c>
       <c r="C349" t="inlineStr"/>
@@ -6644,8 +5944,6 @@
       <c r="E349" t="inlineStr"/>
       <c r="F349" t="inlineStr"/>
       <c r="G349" t="inlineStr"/>
-      <c r="H349" t="inlineStr"/>
-      <c r="I349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -6653,7 +5951,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218642</t>
         </is>
       </c>
       <c r="C350" t="inlineStr"/>
@@ -6661,8 +5959,6 @@
       <c r="E350" t="inlineStr"/>
       <c r="F350" t="inlineStr"/>
       <c r="G350" t="inlineStr"/>
-      <c r="H350" t="inlineStr"/>
-      <c r="I350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -6670,7 +5966,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>-351645000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C351" t="inlineStr"/>
@@ -6678,8 +5974,6 @@
       <c r="E351" t="inlineStr"/>
       <c r="F351" t="inlineStr"/>
       <c r="G351" t="inlineStr"/>
-      <c r="H351" t="inlineStr"/>
-      <c r="I351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -6687,7 +5981,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>4091927642</t>
         </is>
       </c>
       <c r="C352" t="inlineStr"/>
@@ -6695,8 +5989,6 @@
       <c r="E352" t="inlineStr"/>
       <c r="F352" t="inlineStr"/>
       <c r="G352" t="inlineStr"/>
-      <c r="H352" t="inlineStr"/>
-      <c r="I352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -6704,7 +5996,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>1714211271</t>
+          <t>TRANSFER_IN</t>
         </is>
       </c>
       <c r="C353" t="inlineStr"/>
@@ -6712,8 +6004,6 @@
       <c r="E353" t="inlineStr"/>
       <c r="F353" t="inlineStr"/>
       <c r="G353" t="inlineStr"/>
-      <c r="H353" t="inlineStr"/>
-      <c r="I353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -6721,7 +6011,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218642</t>
         </is>
       </c>
       <c r="C354" t="inlineStr"/>
@@ -6729,8 +6019,6 @@
       <c r="E354" t="inlineStr"/>
       <c r="F354" t="inlineStr"/>
       <c r="G354" t="inlineStr"/>
-      <c r="H354" t="inlineStr"/>
-      <c r="I354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -6738,7 +6026,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>-361845000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C355" t="inlineStr"/>
@@ -6746,8 +6034,6 @@
       <c r="E355" t="inlineStr"/>
       <c r="F355" t="inlineStr"/>
       <c r="G355" t="inlineStr"/>
-      <c r="H355" t="inlineStr"/>
-      <c r="I355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -6755,7 +6041,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>39997995000</t>
         </is>
       </c>
       <c r="C356" t="inlineStr"/>
@@ -6763,8 +6049,6 @@
       <c r="E356" t="inlineStr"/>
       <c r="F356" t="inlineStr"/>
       <c r="G356" t="inlineStr"/>
-      <c r="H356" t="inlineStr"/>
-      <c r="I356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -6772,7 +6056,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>1714211271</t>
+          <t>TRANSFER_IN</t>
         </is>
       </c>
       <c r="C357" t="inlineStr"/>
@@ -6780,8 +6064,6 @@
       <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr"/>
       <c r="G357" t="inlineStr"/>
-      <c r="H357" t="inlineStr"/>
-      <c r="I357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -6789,7 +6071,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218642</t>
         </is>
       </c>
       <c r="C358" t="inlineStr"/>
@@ -6797,8 +6079,6 @@
       <c r="E358" t="inlineStr"/>
       <c r="F358" t="inlineStr"/>
       <c r="G358" t="inlineStr"/>
-      <c r="H358" t="inlineStr"/>
-      <c r="I358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -6806,7 +6086,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>-48133815000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C359" t="inlineStr"/>
@@ -6814,8 +6094,6 @@
       <c r="E359" t="inlineStr"/>
       <c r="F359" t="inlineStr"/>
       <c r="G359" t="inlineStr"/>
-      <c r="H359" t="inlineStr"/>
-      <c r="I359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -6823,7 +6101,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>34997995000</t>
         </is>
       </c>
       <c r="C360" t="inlineStr"/>
@@ -6831,8 +6109,6 @@
       <c r="E360" t="inlineStr"/>
       <c r="F360" t="inlineStr"/>
       <c r="G360" t="inlineStr"/>
-      <c r="H360" t="inlineStr"/>
-      <c r="I360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -6840,7 +6116,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>1714211271</t>
+          <t>TRANSFER_IN</t>
         </is>
       </c>
       <c r="C361" t="inlineStr"/>
@@ -6848,8 +6124,6 @@
       <c r="E361" t="inlineStr"/>
       <c r="F361" t="inlineStr"/>
       <c r="G361" t="inlineStr"/>
-      <c r="H361" t="inlineStr"/>
-      <c r="I361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -6857,7 +6131,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218642</t>
         </is>
       </c>
       <c r="C362" t="inlineStr"/>
@@ -6865,8 +6139,6 @@
       <c r="E362" t="inlineStr"/>
       <c r="F362" t="inlineStr"/>
       <c r="G362" t="inlineStr"/>
-      <c r="H362" t="inlineStr"/>
-      <c r="I362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -6874,7 +6146,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>-992005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C363" t="inlineStr"/>
@@ -6882,8 +6154,6 @@
       <c r="E363" t="inlineStr"/>
       <c r="F363" t="inlineStr"/>
       <c r="G363" t="inlineStr"/>
-      <c r="H363" t="inlineStr"/>
-      <c r="I363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -6891,7 +6161,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-6044280</t>
         </is>
       </c>
       <c r="C364" t="inlineStr"/>
@@ -6899,8 +6169,6 @@
       <c r="E364" t="inlineStr"/>
       <c r="F364" t="inlineStr"/>
       <c r="G364" t="inlineStr"/>
-      <c r="H364" t="inlineStr"/>
-      <c r="I364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -6908,7 +6176,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>1714211271</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C365" t="inlineStr"/>
@@ -6916,8 +6184,6 @@
       <c r="E365" t="inlineStr"/>
       <c r="F365" t="inlineStr"/>
       <c r="G365" t="inlineStr"/>
-      <c r="H365" t="inlineStr"/>
-      <c r="I365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -6925,7 +6191,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218629</t>
         </is>
       </c>
       <c r="C366" t="inlineStr"/>
@@ -6933,8 +6199,6 @@
       <c r="E366" t="inlineStr"/>
       <c r="F366" t="inlineStr"/>
       <c r="G366" t="inlineStr"/>
-      <c r="H366" t="inlineStr"/>
-      <c r="I366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -6942,7 +6206,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>-6044280</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C367" t="inlineStr"/>
@@ -6950,8 +6214,6 @@
       <c r="E367" t="inlineStr"/>
       <c r="F367" t="inlineStr"/>
       <c r="G367" t="inlineStr"/>
-      <c r="H367" t="inlineStr"/>
-      <c r="I367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -6959,7 +6221,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-731265000</t>
         </is>
       </c>
       <c r="C368" t="inlineStr"/>
@@ -6967,8 +6229,6 @@
       <c r="E368" t="inlineStr"/>
       <c r="F368" t="inlineStr"/>
       <c r="G368" t="inlineStr"/>
-      <c r="H368" t="inlineStr"/>
-      <c r="I368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -6976,7 +6236,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>1714211269</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C369" t="inlineStr"/>
@@ -6984,8 +6244,6 @@
       <c r="E369" t="inlineStr"/>
       <c r="F369" t="inlineStr"/>
       <c r="G369" t="inlineStr"/>
-      <c r="H369" t="inlineStr"/>
-      <c r="I369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -6993,7 +6251,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218628</t>
         </is>
       </c>
       <c r="C370" t="inlineStr"/>
@@ -7001,8 +6259,6 @@
       <c r="E370" t="inlineStr"/>
       <c r="F370" t="inlineStr"/>
       <c r="G370" t="inlineStr"/>
-      <c r="H370" t="inlineStr"/>
-      <c r="I370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -7010,7 +6266,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>-3004005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C371" t="inlineStr"/>
@@ -7018,8 +6274,6 @@
       <c r="E371" t="inlineStr"/>
       <c r="F371" t="inlineStr"/>
       <c r="G371" t="inlineStr"/>
-      <c r="H371" t="inlineStr"/>
-      <c r="I371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -7027,7 +6281,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-4005000</t>
         </is>
       </c>
       <c r="C372" t="inlineStr"/>
@@ -7035,8 +6289,6 @@
       <c r="E372" t="inlineStr"/>
       <c r="F372" t="inlineStr"/>
       <c r="G372" t="inlineStr"/>
-      <c r="H372" t="inlineStr"/>
-      <c r="I372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -7044,7 +6296,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>1714211268</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C373" t="inlineStr"/>
@@ -7052,8 +6304,6 @@
       <c r="E373" t="inlineStr"/>
       <c r="F373" t="inlineStr"/>
       <c r="G373" t="inlineStr"/>
-      <c r="H373" t="inlineStr"/>
-      <c r="I373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -7061,7 +6311,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218628</t>
         </is>
       </c>
       <c r="C374" t="inlineStr"/>
@@ -7069,8 +6319,6 @@
       <c r="E374" t="inlineStr"/>
       <c r="F374" t="inlineStr"/>
       <c r="G374" t="inlineStr"/>
-      <c r="H374" t="inlineStr"/>
-      <c r="I374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -7078,7 +6326,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>-7358269820</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C375" t="inlineStr"/>
@@ -7086,8 +6334,6 @@
       <c r="E375" t="inlineStr"/>
       <c r="F375" t="inlineStr"/>
       <c r="G375" t="inlineStr"/>
-      <c r="H375" t="inlineStr"/>
-      <c r="I375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -7095,7 +6341,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-542005000</t>
         </is>
       </c>
       <c r="C376" t="inlineStr"/>
@@ -7103,8 +6349,6 @@
       <c r="E376" t="inlineStr"/>
       <c r="F376" t="inlineStr"/>
       <c r="G376" t="inlineStr"/>
-      <c r="H376" t="inlineStr"/>
-      <c r="I376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -7112,7 +6356,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>1714211267</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C377" t="inlineStr"/>
@@ -7120,8 +6364,6 @@
       <c r="E377" t="inlineStr"/>
       <c r="F377" t="inlineStr"/>
       <c r="G377" t="inlineStr"/>
-      <c r="H377" t="inlineStr"/>
-      <c r="I377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -7129,7 +6371,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218627</t>
         </is>
       </c>
       <c r="C378" t="inlineStr"/>
@@ -7137,8 +6379,6 @@
       <c r="E378" t="inlineStr"/>
       <c r="F378" t="inlineStr"/>
       <c r="G378" t="inlineStr"/>
-      <c r="H378" t="inlineStr"/>
-      <c r="I378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -7146,7 +6386,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>-6044280</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C379" t="inlineStr"/>
@@ -7154,8 +6394,6 @@
       <c r="E379" t="inlineStr"/>
       <c r="F379" t="inlineStr"/>
       <c r="G379" t="inlineStr"/>
-      <c r="H379" t="inlineStr"/>
-      <c r="I379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -7163,7 +6401,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-300617510</t>
         </is>
       </c>
       <c r="C380" t="inlineStr"/>
@@ -7171,8 +6409,6 @@
       <c r="E380" t="inlineStr"/>
       <c r="F380" t="inlineStr"/>
       <c r="G380" t="inlineStr"/>
-      <c r="H380" t="inlineStr"/>
-      <c r="I380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -7180,7 +6416,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>1714211254</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C381" t="inlineStr"/>
@@ -7188,8 +6424,6 @@
       <c r="E381" t="inlineStr"/>
       <c r="F381" t="inlineStr"/>
       <c r="G381" t="inlineStr"/>
-      <c r="H381" t="inlineStr"/>
-      <c r="I381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -7197,7 +6431,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218614</t>
         </is>
       </c>
       <c r="C382" t="inlineStr"/>
@@ -7205,8 +6439,6 @@
       <c r="E382" t="inlineStr"/>
       <c r="F382" t="inlineStr"/>
       <c r="G382" t="inlineStr"/>
-      <c r="H382" t="inlineStr"/>
-      <c r="I382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -7214,7 +6446,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>-6044280</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C383" t="inlineStr"/>
@@ -7222,8 +6454,6 @@
       <c r="E383" t="inlineStr"/>
       <c r="F383" t="inlineStr"/>
       <c r="G383" t="inlineStr"/>
-      <c r="H383" t="inlineStr"/>
-      <c r="I383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -7231,7 +6461,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-492005000</t>
         </is>
       </c>
       <c r="C384" t="inlineStr"/>
@@ -7239,8 +6469,6 @@
       <c r="E384" t="inlineStr"/>
       <c r="F384" t="inlineStr"/>
       <c r="G384" t="inlineStr"/>
-      <c r="H384" t="inlineStr"/>
-      <c r="I384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -7248,7 +6476,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>1714211250</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C385" t="inlineStr"/>
@@ -7256,8 +6484,6 @@
       <c r="E385" t="inlineStr"/>
       <c r="F385" t="inlineStr"/>
       <c r="G385" t="inlineStr"/>
-      <c r="H385" t="inlineStr"/>
-      <c r="I385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -7265,7 +6491,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218614</t>
         </is>
       </c>
       <c r="C386" t="inlineStr"/>
@@ -7273,8 +6499,6 @@
       <c r="E386" t="inlineStr"/>
       <c r="F386" t="inlineStr"/>
       <c r="G386" t="inlineStr"/>
-      <c r="H386" t="inlineStr"/>
-      <c r="I386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -7282,7 +6506,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>-992005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C387" t="inlineStr"/>
@@ -7290,8 +6514,6 @@
       <c r="E387" t="inlineStr"/>
       <c r="F387" t="inlineStr"/>
       <c r="G387" t="inlineStr"/>
-      <c r="H387" t="inlineStr"/>
-      <c r="I387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -7299,7 +6521,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-10992005000</t>
         </is>
       </c>
       <c r="C388" t="inlineStr"/>
@@ -7307,8 +6529,6 @@
       <c r="E388" t="inlineStr"/>
       <c r="F388" t="inlineStr"/>
       <c r="G388" t="inlineStr"/>
-      <c r="H388" t="inlineStr"/>
-      <c r="I388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -7316,7 +6536,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>1714211250</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C389" t="inlineStr"/>
@@ -7324,8 +6544,6 @@
       <c r="E389" t="inlineStr"/>
       <c r="F389" t="inlineStr"/>
       <c r="G389" t="inlineStr"/>
-      <c r="H389" t="inlineStr"/>
-      <c r="I389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -7333,7 +6551,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218613</t>
         </is>
       </c>
       <c r="C390" t="inlineStr"/>
@@ -7341,8 +6559,6 @@
       <c r="E390" t="inlineStr"/>
       <c r="F390" t="inlineStr"/>
       <c r="G390" t="inlineStr"/>
-      <c r="H390" t="inlineStr"/>
-      <c r="I390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -7350,7 +6566,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>-10212005000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C391" t="inlineStr"/>
@@ -7358,8 +6574,6 @@
       <c r="E391" t="inlineStr"/>
       <c r="F391" t="inlineStr"/>
       <c r="G391" t="inlineStr"/>
-      <c r="H391" t="inlineStr"/>
-      <c r="I391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -7367,7 +6581,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-9991650350</t>
         </is>
       </c>
       <c r="C392" t="inlineStr"/>
@@ -7375,8 +6589,6 @@
       <c r="E392" t="inlineStr"/>
       <c r="F392" t="inlineStr"/>
       <c r="G392" t="inlineStr"/>
-      <c r="H392" t="inlineStr"/>
-      <c r="I392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -7384,7 +6596,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>1714211249</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C393" t="inlineStr"/>
@@ -7392,8 +6604,6 @@
       <c r="E393" t="inlineStr"/>
       <c r="F393" t="inlineStr"/>
       <c r="G393" t="inlineStr"/>
-      <c r="H393" t="inlineStr"/>
-      <c r="I393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -7401,7 +6611,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1714218613</t>
         </is>
       </c>
       <c r="C394" t="inlineStr"/>
@@ -7409,8 +6619,6 @@
       <c r="E394" t="inlineStr"/>
       <c r="F394" t="inlineStr"/>
       <c r="G394" t="inlineStr"/>
-      <c r="H394" t="inlineStr"/>
-      <c r="I394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -7418,7 +6626,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>-1091015000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C395" t="inlineStr"/>
@@ -7426,8 +6634,6 @@
       <c r="E395" t="inlineStr"/>
       <c r="F395" t="inlineStr"/>
       <c r="G395" t="inlineStr"/>
-      <c r="H395" t="inlineStr"/>
-      <c r="I395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -7435,7 +6641,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>TRANSFER_OUT</t>
+          <t>-4005000</t>
         </is>
       </c>
       <c r="C396" t="inlineStr"/>
@@ -7443,8 +6649,6 @@
       <c r="E396" t="inlineStr"/>
       <c r="F396" t="inlineStr"/>
       <c r="G396" t="inlineStr"/>
-      <c r="H396" t="inlineStr"/>
-      <c r="I396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -7452,7 +6656,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>1714211249</t>
+          <t>TRANSFER_OUT</t>
         </is>
       </c>
       <c r="C397" t="inlineStr"/>
@@ -7460,8 +6664,81 @@
       <c r="E397" t="inlineStr"/>
       <c r="F397" t="inlineStr"/>
       <c r="G397" t="inlineStr"/>
-      <c r="H397" t="inlineStr"/>
-      <c r="I397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1714218596</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr"/>
+      <c r="D398" t="inlineStr"/>
+      <c r="E398" t="inlineStr"/>
+      <c r="F398" t="inlineStr"/>
+      <c r="G398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr"/>
+      <c r="D399" t="inlineStr"/>
+      <c r="E399" t="inlineStr"/>
+      <c r="F399" t="inlineStr"/>
+      <c r="G399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>-341005000</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr"/>
+      <c r="D400" t="inlineStr"/>
+      <c r="E400" t="inlineStr"/>
+      <c r="F400" t="inlineStr"/>
+      <c r="G400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>TRANSFER_OUT</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr"/>
+      <c r="D401" t="inlineStr"/>
+      <c r="E401" t="inlineStr"/>
+      <c r="F401" t="inlineStr"/>
+      <c r="G401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>1714218596</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr"/>
+      <c r="D402" t="inlineStr"/>
+      <c r="E402" t="inlineStr"/>
+      <c r="F402" t="inlineStr"/>
+      <c r="G402" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
